--- a/core/assets/levels/tut2.xlsx
+++ b/core/assets/levels/tut2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5AD4EC-AC6E-49ED-8F58-DAE2A1BE20D5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D349F5-F5D8-4703-A6A5-B797F6E90733}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Region</t>
   </si>
@@ -300,6 +300,30 @@
   </si>
   <si>
     <t>* tell them to switch channel</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
+  <si>
+    <t>rustling_leaves.mp3</t>
+  </si>
+  <si>
+    <t>bensound-extremeaction.mp3</t>
+  </si>
+  <si>
+    <t>bensound-countryboy.mp3</t>
+  </si>
+  <si>
+    <t>bensound-dance.mp3</t>
+  </si>
+  <si>
+    <t>Dance</t>
   </si>
 </sst>
 </file>
@@ -720,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -876,6 +900,12 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="G9" s="11"/>
@@ -883,6 +913,12 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="G10" s="11"/>
@@ -890,6 +926,12 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" t="s">
@@ -900,8 +942,12 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="G12" s="11"/>

--- a/core/assets/levels/tut2.xlsx
+++ b/core/assets/levels/tut2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D349F5-F5D8-4703-A6A5-B797F6E90733}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD410745-E11B-43B5-B4F1-2AC947890109}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8745" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,25 +305,25 @@
     <t>Pop</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
     <t>Classical</t>
   </si>
   <si>
     <t>rustling_leaves.mp3</t>
   </si>
   <si>
-    <t>bensound-extremeaction.mp3</t>
-  </si>
-  <si>
-    <t>bensound-countryboy.mp3</t>
-  </si>
-  <si>
     <t>bensound-dance.mp3</t>
   </si>
   <si>
-    <t>Dance</t>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>bensound-funkyelement.mp3</t>
+  </si>
+  <si>
+    <t>Jazz</t>
+  </si>
+  <si>
+    <t>bensound-jazzyfrenchy.mp3</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
   <dimension ref="A1:AS1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -900,24 +900,22 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A9" t="s">
-        <v>50</v>
+      <c r="A9" s="2" t="s">
+        <v>51</v>
       </c>
-      <c r="B9" t="s">
-        <v>56</v>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
       <c r="G9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -927,10 +925,10 @@
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -942,10 +940,10 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>52</v>
+      <c r="A12" t="s">
+        <v>50</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="2"/>

--- a/core/assets/levels/tut2.xlsx
+++ b/core/assets/levels/tut2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD410745-E11B-43B5-B4F1-2AC947890109}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE4552E-1149-4C93-AB01-32225C3AE15A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8745" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Region</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Normal</t>
-  </si>
-  <si>
-    <t>Gnome</t>
   </si>
   <si>
     <t>Padding between enemies:</t>
@@ -290,13 +287,7 @@
     <t>Which blocks to use</t>
   </si>
   <si>
-    <t>Ned wakes up</t>
-  </si>
-  <si>
     <t>* tell them to put on Pop channel</t>
-  </si>
-  <si>
-    <t>Nosh wakes up</t>
   </si>
   <si>
     <t>* tell them to switch channel</t>
@@ -744,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -795,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -823,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="11"/>
       <c r="I2" s="11"/>
@@ -840,13 +831,13 @@
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="9"/>
       <c r="G4" s="11"/>
@@ -878,7 +869,7 @@
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -888,10 +879,10 @@
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -901,10 +892,10 @@
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G9" s="11"/>
       <c r="I9" s="11"/>
@@ -912,10 +903,10 @@
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -925,26 +916,23 @@
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
       <c r="G11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -960,7 +948,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="2"/>
       <c r="K13" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
@@ -974,7 +962,7 @@
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1007,9 +995,6 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
@@ -1017,7 +1002,7 @@
     </row>
     <row r="19" spans="1:45" ht="16.5" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1034,12 +1019,12 @@
       <c r="I20" s="11"/>
       <c r="J20" s="2"/>
       <c r="K20" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:45" ht="16.5" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1050,7 +1035,7 @@
     </row>
     <row r="22" spans="1:45" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1061,7 +1046,7 @@
     </row>
     <row r="23" spans="1:45" ht="16.5" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1072,7 +1057,7 @@
     </row>
     <row r="24" spans="1:45" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1083,7 +1068,7 @@
     </row>
     <row r="25" spans="1:45" ht="16.5" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1094,7 +1079,7 @@
     </row>
     <row r="26" spans="1:45" ht="16.5" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1105,7 +1090,7 @@
     </row>
     <row r="27" spans="1:45" ht="16.5" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1122,9 +1107,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="G28" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="G28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
@@ -1133,17 +1116,13 @@
     </row>
     <row r="29" spans="1:45" ht="16.5" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="G29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="G29" s="11"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1151,15 +1130,13 @@
     </row>
     <row r="30" spans="1:45" ht="16.5" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="G30" s="11"/>
-      <c r="I30" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="I30" s="11"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1167,7 +1144,7 @@
     </row>
     <row r="31" spans="1:45" ht="16.5" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1181,15 +1158,13 @@
     </row>
     <row r="32" spans="1:45" ht="16.5" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1230,15 +1205,13 @@
     </row>
     <row r="33" spans="1:45" ht="16.5" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1323,7 +1296,7 @@
     </row>
     <row r="35" spans="1:45" ht="16.5" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1369,14 +1342,12 @@
     </row>
     <row r="36" spans="1:45" ht="16.5" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="G36" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="G36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1417,15 +1388,13 @@
     </row>
     <row r="37" spans="1:45" ht="16.5" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="G37" s="11"/>
-      <c r="I37" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="I37" s="11"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -1465,15 +1434,13 @@
     </row>
     <row r="38" spans="1:45" ht="16.5" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="G38" s="11"/>
-      <c r="I38" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="I38" s="11"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -1513,15 +1480,13 @@
     </row>
     <row r="39" spans="1:45" ht="16.5" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1566,9 +1531,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H40" s="11"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -1608,7 +1571,7 @@
     </row>
     <row r="41" spans="1:45" ht="16.5" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1652,16 +1615,14 @@
     </row>
     <row r="42" spans="1:45" ht="16.5" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="3"/>
       <c r="J42" s="2"/>
@@ -1703,16 +1664,14 @@
     </row>
     <row r="43" spans="1:45" ht="16.5" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G43" s="4"/>
       <c r="H43" s="3"/>
       <c r="I43" s="4"/>
       <c r="J43" s="2"/>
@@ -1754,13 +1713,13 @@
     </row>
     <row r="44" spans="1:45" ht="16.5" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -1805,7 +1764,7 @@
     </row>
     <row r="45" spans="1:45" ht="16.5" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1901,7 +1860,7 @@
     </row>
     <row r="47" spans="1:45" ht="16.5" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1950,7 +1909,7 @@
     </row>
     <row r="48" spans="1:45" ht="16.5" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1999,7 +1958,7 @@
     </row>
     <row r="49" spans="1:45" ht="16.5" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>

--- a/core/assets/levels/tut2.xlsx
+++ b/core/assets/levels/tut2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE4552E-1149-4C93-AB01-32225C3AE15A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A064D0A1-77A1-4D25-919E-8C03661CFB23}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8745" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>

--- a/core/assets/levels/tut2.xlsx
+++ b/core/assets/levels/tut2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A064D0A1-77A1-4D25-919E-8C03661CFB23}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8313CB1C-1C60-4DFE-9D52-556EDC0175B7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9690" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,9 +299,6 @@
     <t>Classical</t>
   </si>
   <si>
-    <t>rustling_leaves.mp3</t>
-  </si>
-  <si>
     <t>bensound-dance.mp3</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>bensound-jazzyfrenchy.mp3</t>
+  </si>
+  <si>
+    <t>bensound-ofeliasdream.mp3</t>
   </si>
 </sst>
 </file>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -895,7 +895,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G9" s="11"/>
       <c r="I9" s="11"/>
@@ -903,10 +903,10 @@
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -916,10 +916,10 @@
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -932,7 +932,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>

--- a/core/assets/levels/tut2.xlsx
+++ b/core/assets/levels/tut2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8313CB1C-1C60-4DFE-9D52-556EDC0175B7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75103986-987F-41DE-A676-607BAD74088D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Region</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>bensound-ofeliasdream.mp3</t>
+  </si>
+  <si>
+    <t>topiary</t>
   </si>
 </sst>
 </file>
@@ -735,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -816,18 +819,28 @@
       <c r="D2" t="s">
         <v>42</v>
       </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
       <c r="G2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
       <c r="G3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -840,8 +853,14 @@
         <v>43</v>
       </c>
       <c r="D4" s="9"/>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="I4" s="11"/>
+      <c r="J4" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1">
       <c r="A5">
@@ -854,18 +873,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="9"/>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -873,9 +902,14 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1">
       <c r="A8" t="s">
